--- a/TeamData/2022-23/10-25-2022-23.xlsx
+++ b/TeamData/2022-23/10-25-2022-23.xlsx
@@ -802,7 +802,7 @@
         <v>20.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.3</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>111.3</v>
@@ -811,16 +811,16 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
         <v>3</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>10</v>
@@ -847,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>3</v>
@@ -856,7 +856,7 @@
         <v>21</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
         <v>21</v>
@@ -865,28 +865,28 @@
         <v>12</v>
       </c>
       <c r="AV2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -981,7 +981,7 @@
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>21.3</v>
@@ -1014,22 +1014,22 @@
         <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="n">
         <v>1</v>
       </c>
       <c r="AM3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN3" t="n">
         <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
         <v>4</v>
@@ -1047,7 +1047,7 @@
         <v>21</v>
       </c>
       <c r="AV3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW3" t="n">
         <v>28</v>
@@ -1056,19 +1056,19 @@
         <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>23</v>
       </c>
       <c r="BA3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
         <v>12</v>
       </c>
       <c r="BC3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1163,7 +1163,7 @@
         <v>3.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="AA4" t="n">
         <v>21.3</v>
@@ -1175,13 +1175,13 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
         <v>20</v>
@@ -1199,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="AL4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
         <v>18</v>
@@ -1211,13 +1211,13 @@
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
         <v>30</v>
@@ -1238,16 +1238,16 @@
         <v>1</v>
       </c>
       <c r="AY4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC4" t="n">
         <v>29</v>
@@ -1345,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>22.7</v>
       </c>
       <c r="AA5" t="n">
         <v>18</v>
@@ -1357,16 +1357,16 @@
         <v>10.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
         <v>3</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>10</v>
@@ -1381,7 +1381,7 @@
         <v>3</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
@@ -1390,16 +1390,16 @@
         <v>3</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS5" t="n">
         <v>12</v>
@@ -1414,7 +1414,7 @@
         <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1423,16 +1423,16 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA5" t="n">
         <v>29</v>
       </c>
       <c r="BB5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1530,7 +1530,7 @@
         <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="AB6" t="n">
         <v>108</v>
@@ -1542,19 +1542,19 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
         <v>22</v>
@@ -1566,7 +1566,7 @@
         <v>28</v>
       </c>
       <c r="AM6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
         <v>23</v>
@@ -1596,25 +1596,25 @@
         <v>7</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA6" t="n">
         <v>11</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>12</v>
       </c>
       <c r="BB6" t="n">
         <v>23</v>
       </c>
       <c r="BC6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1709,10 +1709,10 @@
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
         <v>116.7</v>
@@ -1721,22 +1721,22 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>3</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>20</v>
@@ -1757,13 +1757,13 @@
         <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS7" t="n">
         <v>10</v>
@@ -1781,16 +1781,16 @@
         <v>21</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BB7" t="n">
         <v>11</v>
@@ -1891,7 +1891,7 @@
         <v>5.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="AA8" t="n">
         <v>26.3</v>
@@ -1903,13 +1903,13 @@
         <v>12.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
         <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
         <v>20</v>
@@ -1918,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="n">
         <v>28</v>
@@ -1927,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM8" t="n">
         <v>9</v>
@@ -1945,7 +1945,7 @@
         <v>23</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
         <v>21</v>
@@ -1954,7 +1954,7 @@
         <v>21</v>
       </c>
       <c r="AU8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV8" t="n">
         <v>7</v>
@@ -1963,16 +1963,16 @@
         <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
         <v>23.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB9" t="n">
         <v>115.5</v>
@@ -2088,19 +2088,19 @@
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
         <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2118,16 +2118,16 @@
         <v>2</v>
       </c>
       <c r="AO9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP9" t="n">
         <v>25</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>22</v>
       </c>
       <c r="AR9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS9" t="n">
         <v>29</v>
@@ -2145,19 +2145,19 @@
         <v>14</v>
       </c>
       <c r="AX9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
         <v>28</v>
@@ -2258,7 +2258,7 @@
         <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>108.3</v>
@@ -2288,10 +2288,10 @@
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>12</v>
@@ -2300,16 +2300,16 @@
         <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ10" t="n">
         <v>25</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>19</v>
@@ -2318,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="AU10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV10" t="n">
         <v>11</v>
@@ -2333,10 +2333,10 @@
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB10" t="n">
         <v>22</v>
@@ -2371,160 +2371,160 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>44</v>
+        <v>43.3</v>
       </c>
       <c r="J11" t="n">
         <v>91.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.482</v>
+        <v>0.474</v>
       </c>
       <c r="L11" t="n">
-        <v>15</v>
+        <v>13.8</v>
       </c>
       <c r="M11" t="n">
-        <v>40.7</v>
+        <v>39.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.369</v>
+        <v>0.35</v>
       </c>
       <c r="O11" t="n">
-        <v>22.3</v>
+        <v>20</v>
       </c>
       <c r="P11" t="n">
-        <v>28.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.779</v>
+        <v>0.777</v>
       </c>
       <c r="R11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S11" t="n">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="T11" t="n">
         <v>40</v>
       </c>
       <c r="U11" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="V11" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="W11" t="n">
-        <v>9.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X11" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.3</v>
+        <v>23.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB11" t="n">
-        <v>125.3</v>
+        <v>120.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.7</v>
+        <v>-3.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AM11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AO11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AQ11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT11" t="n">
         <v>27</v>
       </c>
       <c r="AU11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
         <v>1</v>
       </c>
       <c r="AZ11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BA11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC11" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2619,10 +2619,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AB12" t="n">
         <v>112</v>
@@ -2691,19 +2691,19 @@
         <v>25</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
         <v>30</v>
       </c>
       <c r="AZ12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC12" t="n">
         <v>26</v>
@@ -2801,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="AA13" t="n">
         <v>20.3</v>
@@ -2828,10 +2828,10 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK13" t="n">
         <v>24</v>
@@ -2840,7 +2840,7 @@
         <v>8</v>
       </c>
       <c r="AM13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13" t="n">
         <v>20</v>
@@ -2849,7 +2849,7 @@
         <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ13" t="n">
         <v>11</v>
@@ -2876,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA13" t="n">
         <v>23</v>
@@ -2888,7 +2888,7 @@
         <v>7</v>
       </c>
       <c r="BC13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2917,127 +2917,127 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38</v>
+        <v>37.3</v>
       </c>
       <c r="J14" t="n">
-        <v>81</v>
+        <v>81.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.469</v>
+        <v>0.457</v>
       </c>
       <c r="L14" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>27.7</v>
+        <v>28.5</v>
       </c>
       <c r="N14" t="n">
         <v>0.325</v>
       </c>
       <c r="O14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P14" t="n">
-        <v>24.3</v>
+        <v>22.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.74</v>
+        <v>0.747</v>
       </c>
       <c r="R14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="S14" t="n">
-        <v>39</v>
+        <v>39.3</v>
       </c>
       <c r="T14" t="n">
         <v>47</v>
       </c>
       <c r="U14" t="n">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="V14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
-        <v>103</v>
+        <v>100.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>-3</v>
+        <v>-5.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
         <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
         <v>30</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN14" t="n">
         <v>24</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AP14" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AS14" t="n">
         <v>3</v>
@@ -3052,25 +3052,25 @@
         <v>29</v>
       </c>
       <c r="AW14" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="BB14" t="n">
         <v>30</v>
       </c>
       <c r="BC14" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3177,16 +3177,16 @@
         <v>-7.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="n">
         <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH15" t="n">
         <v>10</v>
@@ -3204,7 +3204,7 @@
         <v>30</v>
       </c>
       <c r="AM15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN15" t="n">
         <v>30</v>
@@ -3213,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>9</v>
@@ -3228,7 +3228,7 @@
         <v>25</v>
       </c>
       <c r="AU15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV15" t="n">
         <v>19</v>
@@ -3240,19 +3240,19 @@
         <v>9</v>
       </c>
       <c r="AY15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>16</v>
       </c>
-      <c r="AZ15" t="n">
-        <v>15</v>
-      </c>
       <c r="BA15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB15" t="n">
         <v>29</v>
       </c>
       <c r="BC15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3347,10 +3347,10 @@
         <v>6.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="AB16" t="n">
         <v>118.5</v>
@@ -3371,10 +3371,10 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
         <v>5</v>
@@ -3386,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="AM16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN16" t="n">
         <v>9</v>
@@ -3395,22 +3395,22 @@
         <v>12</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ16" t="n">
         <v>26</v>
       </c>
       <c r="AR16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT16" t="n">
         <v>13</v>
       </c>
       <c r="AU16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV16" t="n">
         <v>9</v>
@@ -3422,10 +3422,10 @@
         <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA16" t="n">
         <v>3</v>
@@ -3529,10 +3529,10 @@
         <v>7</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="AB17" t="n">
         <v>103.5</v>
@@ -3574,16 +3574,16 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>2</v>
       </c>
       <c r="AR17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS17" t="n">
         <v>9</v>
@@ -3604,10 +3604,10 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>4</v>
@@ -3726,7 +3726,7 @@
         <v>30</v>
       </c>
       <c r="AE18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
         <v>1</v>
@@ -3747,7 +3747,7 @@
         <v>8</v>
       </c>
       <c r="AL18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM18" t="n">
         <v>11</v>
@@ -3786,7 +3786,7 @@
         <v>2</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ18" t="n">
         <v>3</v>
@@ -3798,7 +3798,7 @@
         <v>24</v>
       </c>
       <c r="BC18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3893,7 +3893,7 @@
         <v>4.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
         <v>21.3</v>
@@ -3908,25 +3908,25 @@
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ19" t="n">
         <v>6</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL19" t="n">
         <v>25</v>
@@ -3935,10 +3935,10 @@
         <v>15</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
         <v>8</v>
@@ -3947,7 +3947,7 @@
         <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS19" t="n">
         <v>1</v>
@@ -3965,22 +3965,22 @@
         <v>20</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ19" t="n">
         <v>5</v>
       </c>
       <c r="BA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB19" t="n">
         <v>14</v>
       </c>
-      <c r="BB19" t="n">
-        <v>13</v>
-      </c>
       <c r="BC19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -4078,7 +4078,7 @@
         <v>19.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="AB20" t="n">
         <v>122</v>
@@ -4099,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI20" t="n">
         <v>2</v>
@@ -4120,7 +4120,7 @@
         <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP20" t="n">
         <v>8</v>
@@ -4129,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS20" t="n">
         <v>19</v>
@@ -4147,22 +4147,22 @@
         <v>8</v>
       </c>
       <c r="AX20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4269,16 +4269,16 @@
         <v>11.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF21" t="n">
         <v>3</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
         <v>2</v>
@@ -4287,13 +4287,13 @@
         <v>3</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM21" t="n">
         <v>10</v>
@@ -4302,10 +4302,10 @@
         <v>25</v>
       </c>
       <c r="AO21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP21" t="n">
         <v>27</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>24</v>
@@ -4317,19 +4317,19 @@
         <v>6</v>
       </c>
       <c r="AT21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW21" t="n">
         <v>25</v>
       </c>
       <c r="AX21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY21" t="n">
         <v>9</v>
@@ -4338,13 +4338,13 @@
         <v>30</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
         <v>5</v>
       </c>
       <c r="BC21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4373,94 +4373,94 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>40.3</v>
+        <v>40.8</v>
       </c>
       <c r="J22" t="n">
-        <v>95.7</v>
+        <v>99.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.422</v>
+        <v>0.411</v>
       </c>
       <c r="L22" t="n">
-        <v>12.7</v>
+        <v>10.5</v>
       </c>
       <c r="M22" t="n">
-        <v>41.3</v>
+        <v>38.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.306</v>
+        <v>0.273</v>
       </c>
       <c r="O22" t="n">
-        <v>17</v>
+        <v>17.8</v>
       </c>
       <c r="P22" t="n">
-        <v>22</v>
+        <v>22.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.773</v>
+        <v>0.78</v>
       </c>
       <c r="R22" t="n">
-        <v>12.3</v>
+        <v>14.5</v>
       </c>
       <c r="S22" t="n">
-        <v>36.3</v>
+        <v>37</v>
       </c>
       <c r="T22" t="n">
-        <v>48.7</v>
+        <v>51.5</v>
       </c>
       <c r="U22" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="V22" t="n">
-        <v>12.7</v>
+        <v>11</v>
       </c>
       <c r="W22" t="n">
-        <v>7.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.7</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>110.3</v>
+        <v>109.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>-7.3</v>
+        <v>-2</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AF22" t="n">
         <v>22</v>
       </c>
       <c r="AG22" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AH22" t="n">
         <v>10</v>
@@ -4469,64 +4469,64 @@
         <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>14</v>
       </c>
-      <c r="AM22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>16</v>
-      </c>
       <c r="AR22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AS22" t="n">
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY22" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="BA22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC22" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4621,7 +4621,7 @@
         <v>3.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="AA23" t="n">
         <v>22</v>
@@ -4636,13 +4636,13 @@
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF23" t="n">
         <v>30</v>
       </c>
       <c r="AG23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH23" t="n">
         <v>10</v>
@@ -4693,16 +4693,16 @@
         <v>22</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
         <v>26</v>
@@ -4806,7 +4806,7 @@
         <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB24" t="n">
         <v>107.5</v>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AI24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ24" t="n">
         <v>29</v>
       </c>
       <c r="AK24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL24" t="n">
         <v>17</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>17</v>
       </c>
       <c r="AN24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
         <v>5</v>
@@ -4875,22 +4875,22 @@
         <v>16</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ24" t="n">
         <v>2</v>
       </c>
       <c r="BA24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB24" t="n">
         <v>24</v>
       </c>
       <c r="BC24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4919,133 +4919,133 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
       <c r="H25" t="n">
-        <v>49.7</v>
+        <v>49.3</v>
       </c>
       <c r="I25" t="n">
-        <v>42</v>
+        <v>43.3</v>
       </c>
       <c r="J25" t="n">
-        <v>90.7</v>
+        <v>91</v>
       </c>
       <c r="K25" t="n">
-        <v>0.463</v>
+        <v>0.475</v>
       </c>
       <c r="L25" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>30</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="O25" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="R25" t="n">
         <v>11</v>
       </c>
-      <c r="M25" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="O25" t="n">
-        <v>15</v>
-      </c>
-      <c r="P25" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="R25" t="n">
-        <v>10</v>
-      </c>
       <c r="S25" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="T25" t="n">
-        <v>43.3</v>
+        <v>44.5</v>
       </c>
       <c r="U25" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="V25" t="n">
         <v>14</v>
       </c>
       <c r="W25" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X25" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.3</v>
+        <v>21.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AC25" t="n">
-        <v>5.7</v>
+        <v>11.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AF25" t="n">
         <v>3</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AH25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AJ25" t="n">
         <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AQ25" t="n">
         <v>7</v>
       </c>
       <c r="AR25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AS25" t="n">
         <v>13</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
@@ -5060,19 +5060,19 @@
         <v>27</v>
       </c>
       <c r="AY25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="BB25" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="BC25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5167,10 +5167,10 @@
         <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>17.3</v>
+        <v>17.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="AB26" t="n">
         <v>117.3</v>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
         <v>21</v>
@@ -5203,7 +5203,7 @@
         <v>11</v>
       </c>
       <c r="AL26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM26" t="n">
         <v>23</v>
@@ -5239,22 +5239,22 @@
         <v>16</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ26" t="n">
         <v>1</v>
       </c>
       <c r="BA26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB26" t="n">
         <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5361,22 +5361,22 @@
         <v>-4.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF27" t="n">
         <v>22</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH27" t="n">
         <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
         <v>16</v>
@@ -5385,19 +5385,19 @@
         <v>14</v>
       </c>
       <c r="AL27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN27" t="n">
         <v>18</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ27" t="n">
         <v>29</v>
@@ -5409,7 +5409,7 @@
         <v>8</v>
       </c>
       <c r="AT27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU27" t="n">
         <v>7</v>
@@ -5418,13 +5418,13 @@
         <v>16</v>
       </c>
       <c r="AW27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ27" t="n">
         <v>29</v>
@@ -5433,7 +5433,7 @@
         <v>26</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
         <v>21</v>
@@ -5534,7 +5534,7 @@
         <v>20.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="AB28" t="n">
         <v>117</v>
@@ -5558,7 +5558,7 @@
         <v>10</v>
       </c>
       <c r="AI28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ28" t="n">
         <v>8</v>
@@ -5573,13 +5573,13 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
         <v>28</v>
@@ -5588,10 +5588,10 @@
         <v>11</v>
       </c>
       <c r="AS28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5603,22 +5603,22 @@
         <v>8</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BB28" t="n">
         <v>10</v>
       </c>
       <c r="BC28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5713,10 +5713,10 @@
         <v>5.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
       <c r="AB29" t="n">
         <v>105</v>
@@ -5728,13 +5728,13 @@
         <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
         <v>10</v>
@@ -5758,7 +5758,7 @@
         <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP29" t="n">
         <v>12</v>
@@ -5779,28 +5779,28 @@
         <v>23</v>
       </c>
       <c r="AV29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW29" t="n">
         <v>4</v>
       </c>
       <c r="AX29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY29" t="n">
         <v>20</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>21</v>
       </c>
       <c r="AZ29" t="n">
         <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
       </c>
       <c r="BC29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5925,25 +5925,25 @@
         <v>4</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>3</v>
       </c>
       <c r="AM30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN30" t="n">
         <v>11</v>
       </c>
       <c r="AO30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ30" t="n">
         <v>27</v>
@@ -5952,16 +5952,16 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>5</v>
       </c>
       <c r="AU30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5970,16 +5970,16 @@
         <v>8</v>
       </c>
       <c r="AY30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>21</v>
       </c>
-      <c r="AZ30" t="n">
-        <v>23</v>
-      </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC30" t="n">
         <v>9</v>
@@ -6077,7 +6077,7 @@
         <v>3.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="AA31" t="n">
         <v>20.3</v>
@@ -6101,10 +6101,10 @@
         <v>3</v>
       </c>
       <c r="AH31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>20</v>
@@ -6113,7 +6113,7 @@
         <v>4</v>
       </c>
       <c r="AL31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="n">
         <v>25</v>
@@ -6122,25 +6122,25 @@
         <v>15</v>
       </c>
       <c r="AO31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ31" t="n">
         <v>10</v>
       </c>
       <c r="AR31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV31" t="n">
         <v>26</v>
@@ -6152,16 +6152,16 @@
         <v>4</v>
       </c>
       <c r="AY31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA31" t="n">
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC31" t="n">
         <v>10</v>
